--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/69.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/69.xlsx
@@ -479,13 +479,13 @@
         <v>-0.157821336887451</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.119825399052062</v>
+        <v>-2.098746540463649</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1366176951895816</v>
+        <v>-0.08864438435996315</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2393862796182457</v>
+        <v>-0.1904224576095883</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1237592846026986</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.251714036271385</v>
+        <v>-2.233377381045632</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.182504467384045</v>
+        <v>-0.1035654837959276</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2365391698991857</v>
+        <v>-0.1865409224227637</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09488229133160379</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.500969709317337</v>
+        <v>-2.476700355668855</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2214899871211042</v>
+        <v>-0.1066510724995961</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.310346280913145</v>
+        <v>-0.2331943649078994</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07424684732311672</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.650289269557443</v>
+        <v>-2.682637022569454</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1963173409503583</v>
+        <v>-0.0767722783870622</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3512530507819605</v>
+        <v>-0.2599503651554832</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05314287086263989</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.744694011745862</v>
+        <v>-2.812125012005096</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1555276758514784</v>
+        <v>-0.03289641466383716</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.352818107238496</v>
+        <v>-0.2753892872460068</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.02775207918422546</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.654895390508245</v>
+        <v>-2.774533770935083</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02990650750023362</v>
+        <v>0.1298011457000608</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3648243957602815</v>
+        <v>-0.2945578742748448</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.003048950649423373</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.496977168567345</v>
+        <v>-2.689052778168167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1317797283754315</v>
+        <v>0.2518035786699748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3524606937219216</v>
+        <v>-0.2872961586974824</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.04150666550304638</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.177981945500666</v>
+        <v>-2.36450178765699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2212526519716646</v>
+        <v>0.3515207299528683</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3493964522419394</v>
+        <v>-0.2897163239428187</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.09248109276953206</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.731991478804214</v>
+        <v>-1.960730030205038</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3138319015745756</v>
+        <v>0.4318863180038994</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2788085025598564</v>
+        <v>-0.2644351118916117</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1601909231851621</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.283268567475931</v>
+        <v>-1.476907403771258</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3386465243080703</v>
+        <v>0.4515574796703778</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2366367572074654</v>
+        <v>-0.2272006744174962</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2455390524803357</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6559468538202505</v>
+        <v>-0.8562063790616776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2756234207796935</v>
+        <v>0.3844881623724544</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1488484345204104</v>
+        <v>-0.1716948432300392</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3489721617886688</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07689975180850254</v>
+        <v>-0.2476153293889305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.133124603467661</v>
+        <v>0.1784575676876371</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02917162909093677</v>
+        <v>-0.07015036959960853</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4706302342579154</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6430018213707652</v>
+        <v>0.4277650839911128</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1142726412762398</v>
+        <v>-0.09532240584967763</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1194129767336879</v>
+        <v>0.04565587921522198</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6030157728650711</v>
       </c>
       <c r="E15" t="n">
-        <v>1.298848305236598</v>
+        <v>1.083793934139294</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4108087552630246</v>
+        <v>-0.3865131750254425</v>
       </c>
       <c r="G15" t="n">
-        <v>0.297918461197542</v>
+        <v>0.1975163689946604</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7369160334548346</v>
       </c>
       <c r="E16" t="n">
-        <v>2.008431850327319</v>
+        <v>1.721633729865494</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7198817887603657</v>
+        <v>-0.7496068828623591</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4264086204060251</v>
+        <v>0.3271879445540045</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.871415811165355</v>
       </c>
       <c r="E17" t="n">
-        <v>2.594513167504003</v>
+        <v>2.270986843729763</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.036423300944487</v>
+        <v>-1.094050436245674</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6267785412899436</v>
+        <v>0.493033915451276</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.009825564954284</v>
       </c>
       <c r="E18" t="n">
-        <v>3.166407729739526</v>
+        <v>2.860331236527048</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.352953834556426</v>
+        <v>-1.480763322289659</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7973434684632148</v>
+        <v>0.6482690963351614</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.151494329619702</v>
       </c>
       <c r="E19" t="n">
-        <v>3.665509479046523</v>
+        <v>3.342130756076056</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.735248455218049</v>
+        <v>-1.832195346787153</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9720076725049096</v>
+        <v>0.8317448243938355</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.292297480930249</v>
       </c>
       <c r="E20" t="n">
-        <v>4.032745158199235</v>
+        <v>3.676431938525726</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.074933407481375</v>
+        <v>-2.163431067915488</v>
       </c>
       <c r="G20" t="n">
-        <v>1.136583178632515</v>
+        <v>0.9851008396726602</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.427380893967937</v>
       </c>
       <c r="E21" t="n">
-        <v>4.397897348320177</v>
+        <v>4.056307613783366</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.473246984797108</v>
+        <v>-2.537727798742913</v>
       </c>
       <c r="G21" t="n">
-        <v>1.323287216833216</v>
+        <v>1.155036938628204</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.552473198970397</v>
       </c>
       <c r="E22" t="n">
-        <v>4.680551667704176</v>
+        <v>4.33392886774284</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.769829452755326</v>
+        <v>-2.853521548177341</v>
       </c>
       <c r="G22" t="n">
-        <v>1.451989018516531</v>
+        <v>1.270700466004675</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.66469282073143</v>
       </c>
       <c r="E23" t="n">
-        <v>4.905257423590341</v>
+        <v>4.533731562397383</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.15809550180265</v>
+        <v>-3.188122506639633</v>
       </c>
       <c r="G23" t="n">
-        <v>1.626897190828925</v>
+        <v>1.412469818187317</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.76304151850344</v>
       </c>
       <c r="E24" t="n">
-        <v>5.043326387027153</v>
+        <v>4.699423833284114</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.415350589484491</v>
+        <v>-3.441471357347242</v>
       </c>
       <c r="G24" t="n">
-        <v>1.781420594283046</v>
+        <v>1.546987213523425</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.846786241297233</v>
       </c>
       <c r="E25" t="n">
-        <v>5.202419316191469</v>
+        <v>4.811463821920025</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.681778274223946</v>
+        <v>-3.638532763520141</v>
       </c>
       <c r="G25" t="n">
-        <v>1.851656619734645</v>
+        <v>1.601669041876595</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.913614846547987</v>
       </c>
       <c r="E26" t="n">
-        <v>5.243029054690709</v>
+        <v>4.815120906297807</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.8419220967143</v>
+        <v>-3.79763270677224</v>
       </c>
       <c r="G26" t="n">
-        <v>1.892778081681676</v>
+        <v>1.656480173413236</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.961641899229904</v>
       </c>
       <c r="E27" t="n">
-        <v>5.2479633129656</v>
+        <v>4.816527383378387</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.0221707344723</v>
+        <v>-3.943211928462189</v>
       </c>
       <c r="G27" t="n">
-        <v>1.990624606248983</v>
+        <v>1.729169909747393</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.991194350593696</v>
       </c>
       <c r="E28" t="n">
-        <v>5.172722278440607</v>
+        <v>4.765175721920262</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.05545441076278</v>
+        <v>-4.018627095340394</v>
       </c>
       <c r="G28" t="n">
-        <v>2.027806590544898</v>
+        <v>1.765814553927093</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.00275488146206</v>
       </c>
       <c r="E29" t="n">
-        <v>5.085837858196492</v>
+        <v>4.670683151154392</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.08248670507693</v>
+        <v>-4.055922524882185</v>
       </c>
       <c r="G29" t="n">
-        <v>2.085924711990867</v>
+        <v>1.8024616377895</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.99784096032173</v>
       </c>
       <c r="E30" t="n">
-        <v>4.991083021539621</v>
+        <v>4.566839276572621</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.025659785703637</v>
+        <v>-4.024045325672286</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0683596064212</v>
+        <v>1.836753817918983</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.980617345786288</v>
       </c>
       <c r="E31" t="n">
-        <v>4.915530927469486</v>
+        <v>4.466123075221214</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.972081303854704</v>
+        <v>-4.008462462302049</v>
       </c>
       <c r="G31" t="n">
-        <v>2.001181113322138</v>
+        <v>1.764805135207075</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.953916218952242</v>
       </c>
       <c r="E32" t="n">
-        <v>4.753834856856808</v>
+        <v>4.347269052784673</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.927272261496055</v>
+        <v>-3.969451630856905</v>
       </c>
       <c r="G32" t="n">
-        <v>1.937437693474522</v>
+        <v>1.727134604449085</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.918164117703548</v>
       </c>
       <c r="E33" t="n">
-        <v>4.514231178520394</v>
+        <v>4.148461748674584</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.832391171259097</v>
+        <v>-3.884131352188311</v>
       </c>
       <c r="G33" t="n">
-        <v>1.796177015136288</v>
+        <v>1.625190632775384</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.874957799292917</v>
       </c>
       <c r="E34" t="n">
-        <v>4.338898501416983</v>
+        <v>3.988006256718411</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.630782501480703</v>
+        <v>-3.735423847347322</v>
       </c>
       <c r="G34" t="n">
-        <v>1.681241123127177</v>
+        <v>1.544030928003227</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.825327726324053</v>
       </c>
       <c r="E35" t="n">
-        <v>4.107588524442989</v>
+        <v>3.805990068839196</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.469441709662231</v>
+        <v>-3.638366255175388</v>
       </c>
       <c r="G35" t="n">
-        <v>1.607130271616197</v>
+        <v>1.493432518580885</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.769213652827975</v>
       </c>
       <c r="E36" t="n">
-        <v>3.857492990625155</v>
+        <v>3.585764790244421</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.307960941048445</v>
+        <v>-3.503129153440718</v>
       </c>
       <c r="G36" t="n">
-        <v>1.534604603944086</v>
+        <v>1.423684429670684</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.707722470608345</v>
       </c>
       <c r="E37" t="n">
-        <v>3.611110653887363</v>
+        <v>3.378483248251593</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.208071792134709</v>
+        <v>-3.408584129496648</v>
       </c>
       <c r="G37" t="n">
-        <v>1.440470666536144</v>
+        <v>1.340829755337844</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.642759657738231</v>
       </c>
       <c r="E38" t="n">
-        <v>3.438991038909061</v>
+        <v>3.215425834688414</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.068750051627857</v>
+        <v>-3.263750535834024</v>
       </c>
       <c r="G38" t="n">
-        <v>1.365759043158567</v>
+        <v>1.262807482526879</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.575131262344995</v>
       </c>
       <c r="E39" t="n">
-        <v>3.05840297630098</v>
+        <v>2.920865863694293</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.843767086794109</v>
+        <v>-3.088492574013515</v>
       </c>
       <c r="G39" t="n">
-        <v>1.226138441520109</v>
+        <v>1.185007830762927</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.505145611215573</v>
       </c>
       <c r="E40" t="n">
-        <v>2.83237003302221</v>
+        <v>2.722941724724134</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.71998185568606</v>
+        <v>-2.973301430201185</v>
       </c>
       <c r="G40" t="n">
-        <v>1.135077284481624</v>
+        <v>1.094566963052695</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.434392513327668</v>
       </c>
       <c r="E41" t="n">
-        <v>2.552988547989641</v>
+        <v>2.503698418418924</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.53902997938777</v>
+        <v>-2.807788475993418</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9880046720146577</v>
+        <v>0.9761905085060478</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.363232417396591</v>
       </c>
       <c r="E42" t="n">
-        <v>2.267351716496344</v>
+        <v>2.25361020364921</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.484602487956804</v>
+        <v>-2.733642859003863</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9280622778245353</v>
+        <v>0.9159333952467235</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.290608149423176</v>
       </c>
       <c r="E43" t="n">
-        <v>2.007125400237725</v>
+        <v>1.991557174963731</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.338953430349367</v>
+        <v>-2.629895961809695</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8458309424233319</v>
+        <v>0.836430235032614</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.216883160320879</v>
       </c>
       <c r="E44" t="n">
-        <v>1.693481011268157</v>
+        <v>1.727055924681784</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.275353341860787</v>
+        <v>-2.526033179686945</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7887441968417439</v>
+        <v>0.7969732466124287</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.14288117718368</v>
       </c>
       <c r="E45" t="n">
-        <v>1.464331373331205</v>
+        <v>1.513469022732735</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.218458111371698</v>
+        <v>-2.443902481197405</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7014371015686431</v>
+        <v>0.7086774699223194</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.069208219820663</v>
       </c>
       <c r="E46" t="n">
-        <v>1.217264705594101</v>
+        <v>1.26441645327214</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.130993046643319</v>
+        <v>-2.36739952079222</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5820554977467155</v>
+        <v>0.6033685658749997</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.995704642742781</v>
       </c>
       <c r="E47" t="n">
-        <v>1.018271375677603</v>
+        <v>1.0990785462986</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.063913970614568</v>
+        <v>-2.300079526096153</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4749089027003539</v>
+        <v>0.5203687304210937</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9235349849781432</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8065679087783524</v>
+        <v>0.9030372324575625</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.004934031252354</v>
+        <v>-2.227198274669497</v>
       </c>
       <c r="G48" t="n">
-        <v>0.395678377028751</v>
+        <v>0.4521460531234396</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8536311744262757</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6547592622564375</v>
+        <v>0.7232405459210327</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.90239050755341</v>
+        <v>-2.118414042606067</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3057675303866128</v>
+        <v>0.3529827098150334</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7863375483577896</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4811465614614563</v>
+        <v>0.5673984939637829</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.886363012009824</v>
+        <v>-2.080190313794267</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2738869766129918</v>
+        <v>0.3167845275707129</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.7226807111357239</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2740992290085001</v>
+        <v>0.366608337733585</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.837563868583889</v>
+        <v>-2.044756362157911</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1586686913305464</v>
+        <v>0.2403681759016255</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6629518301963833</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1557752276400536</v>
+        <v>0.253318621631017</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.787186860367206</v>
+        <v>-1.9796802656316</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1342194110824237</v>
+        <v>0.1971626150021465</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.607121341694918</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.01662983021496645</v>
+        <v>0.08683650346789736</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.758374207597628</v>
+        <v>-1.943880361589196</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08443585568421699</v>
+        <v>0.1474906750877847</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5558761884043447</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2232849836727737</v>
+        <v>-0.09188001355011159</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.672272315581781</v>
+        <v>-1.856401878605929</v>
       </c>
       <c r="G54" t="n">
-        <v>0.008958171936644825</v>
+        <v>0.08513909422450751</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.509924548681426</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3418663715668079</v>
+        <v>-0.2172315209560492</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.67508039037753</v>
+        <v>-1.860245598710796</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.008623401491294693</v>
+        <v>0.06370282211952026</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4689459584699037</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4963995337517563</v>
+        <v>-0.3682533698049591</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.685781448651074</v>
+        <v>-1.857891914819225</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1318395766079374</v>
+        <v>-0.03123011137496146</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.432095470585798</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6498836323726981</v>
+        <v>-0.4913207242764752</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.673043255317191</v>
+        <v>-1.808628621758284</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1439422325966491</v>
+        <v>-0.04833777643706774</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3995027607824039</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8112906005845971</v>
+        <v>-0.641699106811416</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.669017168929977</v>
+        <v>-1.783707262906359</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1987808105637437</v>
+        <v>-0.1079514233824229</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3711323773760402</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9834626687410994</v>
+        <v>-0.7714737589651305</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.643185808428343</v>
+        <v>-1.762349060647995</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2444480113145778</v>
+        <v>-0.1671716714912756</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3456050871540144</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.184079607499101</v>
+        <v>-0.9136359000635981</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.670195535677454</v>
+        <v>-1.747860394971845</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2752837709689294</v>
+        <v>-0.1859328315080459</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3225276803720685</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.339091557415297</v>
+        <v>-1.06461993383055</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.609857912888799</v>
+        <v>-1.686478587984597</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3453874436336744</v>
+        <v>-0.2428250123937512</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3013662806152544</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.497148231349819</v>
+        <v>-1.1949130185595</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.574872252949854</v>
+        <v>-1.65954327105805</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3910192689852571</v>
+        <v>-0.2953635794888289</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2822715207117308</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.62622574417001</v>
+        <v>-1.289504396475003</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.618339469819658</v>
+        <v>-1.682386020243618</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4806275949717283</v>
+        <v>-0.3516903639071888</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2655063026752272</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.800660008116571</v>
+        <v>-1.441242902119092</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.567048800429206</v>
+        <v>-1.641201126546205</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5338102383014519</v>
+        <v>-0.4054609707692976</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2508788169155917</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.961533295736315</v>
+        <v>-1.582168124085114</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.561316155988451</v>
+        <v>-1.627128426771597</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5565980946261129</v>
+        <v>-0.4141858860501786</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2375496674594081</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.137932114182682</v>
+        <v>-1.722589551572143</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.578534216693049</v>
+        <v>-1.625613993731232</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6322733926729515</v>
+        <v>-0.4764478085739738</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2239105051138526</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.355870190239651</v>
+        <v>-1.89924331686139</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.569592169651246</v>
+        <v>-1.603798350965307</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6712363453449709</v>
+        <v>-0.4963007266021231</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2089596168759048</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.522334010782469</v>
+        <v>-2.024810736186896</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.574073866783991</v>
+        <v>-1.599425829633701</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7432582185380885</v>
+        <v>-0.5671210560620471</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1923096654110468</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.617398077222451</v>
+        <v>-2.088962802887933</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.592900288313173</v>
+        <v>-1.614410360820047</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7391449134940996</v>
+        <v>-0.5669819941477485</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1748780353592834</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.778389689453485</v>
+        <v>-2.209757592917887</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.518355783201025</v>
+        <v>-1.578115201188123</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7626976103474027</v>
+        <v>-0.6003239178628579</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1581251282024632</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.941578235962165</v>
+        <v>-2.313502050429348</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.573454187376415</v>
+        <v>-1.595397913484456</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8261934024002592</v>
+        <v>-0.651551765423604</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1434866165926367</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.067137726318874</v>
+        <v>-2.369120107021326</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.534913299812705</v>
+        <v>-1.589554263480533</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.8843328710699143</v>
+        <v>-0.6825759905670707</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1310929847769444</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.112152921866264</v>
+        <v>-2.373374303741644</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.535665332007135</v>
+        <v>-1.563757668457474</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.9029372814727603</v>
+        <v>-0.7120949314803232</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1204676887478794</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.161431157983785</v>
+        <v>-2.393018018977668</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.598123039068166</v>
+        <v>-1.610877090339645</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.9110443471080956</v>
+        <v>-0.7264359963527004</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1119389377771397</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.1449983701505</v>
+        <v>-2.333003044227013</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.606921144830257</v>
+        <v>-1.581559423249719</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9466027225625073</v>
+        <v>-0.7321729102381925</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1059251433742984</v>
       </c>
       <c r="E76" t="n">
-        <v>-3.030308276174119</v>
+        <v>-2.224085239535375</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.600242513419866</v>
+        <v>-1.562206030255827</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.8865792089223774</v>
+        <v>-0.7149011765140411</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1034372389595024</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.914923482546921</v>
+        <v>-2.103463057056942</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.523176596230042</v>
+        <v>-1.49915487037632</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.9000712642127212</v>
+        <v>-0.7050277805988435</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1056873599224033</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.792242817784463</v>
+        <v>-1.927810171598239</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.50862449880351</v>
+        <v>-1.460704860993445</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8612241964692839</v>
+        <v>-0.6683038467311662</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1135921342679258</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.607899172602777</v>
+        <v>-1.748430670804604</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.485565837698373</v>
+        <v>-1.399686566729539</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.8319803297812448</v>
+        <v>-0.6592282270611551</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1268904983283543</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.426580733977761</v>
+        <v>-1.540452599398931</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.422426849241414</v>
+        <v>-1.295280345283807</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7660210681150028</v>
+        <v>-0.6195864326759151</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1439155017677984</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.178685793961634</v>
+        <v>-1.283219773821791</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.359692848113816</v>
+        <v>-1.200427311397979</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.7350871112316948</v>
+        <v>-0.590628008864594</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.162410046286102</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.938797282669178</v>
+        <v>-1.06774821698159</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.351009407438954</v>
+        <v>-1.166135131268496</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6724177616958319</v>
+        <v>-0.545234052576943</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1812473756310946</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.658086780481975</v>
+        <v>-0.813961443228077</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.255195748487248</v>
+        <v>-1.038536676089419</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.615996439572576</v>
+        <v>-0.4930736363014491</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.199511073555949</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.337384999361755</v>
+        <v>-0.5391781501775116</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.162889133426843</v>
+        <v>-0.9347318364309598</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5538009984025463</v>
+        <v>-0.4456559632083481</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2163302252110513</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.070499569154401</v>
+        <v>-0.2813982257533286</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.066743677626986</v>
+        <v>-0.8215756929565997</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5066644987414262</v>
+        <v>-0.4026779027212962</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2301954450190588</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.7462718366019007</v>
+        <v>-0.02928690409884215</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9816396158382995</v>
+        <v>-0.7324839697833341</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4422898109933756</v>
+        <v>-0.360274387511741</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2393704459015706</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.4550749682193684</v>
+        <v>0.2023627986921005</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8563112854180783</v>
+        <v>-0.6058510190355488</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.3634685420958706</v>
+        <v>-0.3015908695984266</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2414668391010139</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.1826898832697764</v>
+        <v>0.4235651702110257</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.767044515010586</v>
+        <v>-0.5006445816619228</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2281832566277373</v>
+        <v>-0.2007063301402373</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.233518722876413</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05963282144358047</v>
+        <v>0.6050745140078639</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6029252295491884</v>
+        <v>-0.3462395028190914</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2142404699572767</v>
+        <v>-0.1897704524061447</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2133016660596926</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2862464092066144</v>
+        <v>0.823965286161914</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4988361668553648</v>
+        <v>-0.2436587739588658</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1300384808495003</v>
+        <v>-0.1222808997619418</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1801181572366566</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5189402961961498</v>
+        <v>0.9907267479949843</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3628964365010809</v>
+        <v>-0.1073079570684537</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1142171384946557</v>
+        <v>-0.08902375502090044</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1354836570073372</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6620673318052327</v>
+        <v>1.092395645443472</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1545267960209349</v>
+        <v>0.04628348759159573</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1087437103415187</v>
+        <v>-0.08923173797167153</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08247144902298623</v>
       </c>
       <c r="E93" t="n">
-        <v>0.814388311695616</v>
+        <v>1.19656826727001</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02610792152544672</v>
+        <v>0.1952755204282881</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08833088513211465</v>
+        <v>-0.07977613772004638</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02575893339823537</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9845189753470426</v>
+        <v>1.287025602838514</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1885005215509706</v>
+        <v>0.3150871183273231</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0836204677455894</v>
+        <v>-0.1013215856261715</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03031675138941451</v>
       </c>
       <c r="E95" t="n">
-        <v>1.02196871482005</v>
+        <v>1.306386314880528</v>
       </c>
       <c r="F95" t="n">
-        <v>0.304345805289113</v>
+        <v>0.3938187288853461</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07179776534750504</v>
+        <v>-0.1157529187587073</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08340893907106443</v>
       </c>
       <c r="E96" t="n">
-        <v>1.037861417894074</v>
+        <v>1.293525527490618</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4436126529350576</v>
+        <v>0.4961969640808914</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09044913964246065</v>
+        <v>-0.09897278110001476</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1317948560818913</v>
       </c>
       <c r="E97" t="n">
-        <v>1.053905991216609</v>
+        <v>1.26491719814775</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4913230879529977</v>
+        <v>0.5116181984717892</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1239624510677362</v>
+        <v>-0.12566473967654</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.174520289487429</v>
       </c>
       <c r="E98" t="n">
-        <v>1.025517843238047</v>
+        <v>1.214789647487858</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5315071018198667</v>
+        <v>0.5461061631385082</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1454042124588142</v>
+        <v>-0.1522188561801202</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2094918332879582</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9455718806126185</v>
+        <v>1.117830557505219</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5185603156145356</v>
+        <v>0.5172746028279508</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1816713157396072</v>
+        <v>-0.1704109602054845</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2411873551859841</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9445557527651562</v>
+        <v>1.078582161956481</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5270662693724641</v>
+        <v>0.5276591122702632</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2100984986414807</v>
+        <v>-0.1853168116245303</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2704949355749135</v>
       </c>
       <c r="E101" t="n">
-        <v>0.920308966181714</v>
+        <v>1.035202773664129</v>
       </c>
       <c r="F101" t="n">
-        <v>0.522212520626903</v>
+        <v>0.4909681141191303</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2418887841549429</v>
+        <v>-0.219263166730297</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3041570973536654</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8832629941967137</v>
+        <v>0.9858425032155859</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5071791957864169</v>
+        <v>0.480307310610251</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2415338103210756</v>
+        <v>-0.2169253407763217</v>
       </c>
     </row>
   </sheetData>
